--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29921.86099005539</v>
+        <v>29921.86099005545</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26528,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-93692.17018068412</v>
+        <v>-93692.17018068406</v>
       </c>
       <c r="F6" t="n">
         <v>39407.82981931594</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29921.86099005545</v>
+        <v>43648.21912747358</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-93692.17018068406</v>
+        <v>-93692.17018068412</v>
       </c>
       <c r="F6" t="n">
         <v>39407.82981931594</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43648.21912747358</v>
+        <v>-114104.0764759091</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>11571777.34079449</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>25847409.96502022</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1163758.140801683</v>
+        <v>2285889.276298379</v>
       </c>
     </row>
     <row r="11">
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
@@ -22673,7 +22673,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,28 +22728,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,31 +22807,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,28 +22965,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,13 +23044,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
@@ -23059,16 +23059,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
@@ -23220,10 +23220,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,13 +23281,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>113.4004983079896</v>
@@ -23299,13 +23299,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,10 +23357,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>80.29914934735042</v>
@@ -23381,10 +23381,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23439,10 +23439,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>90.4687457914608</v>
@@ -23457,10 +23457,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23518,13 +23518,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>113.4004983079896</v>
@@ -23533,10 +23533,10 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>150.3839754851235</v>
@@ -23594,10 +23594,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>80.29914934735042</v>
@@ -23618,10 +23618,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,7 +23676,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>94.30397654773019</v>
@@ -23697,7 +23697,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23755,7 +23755,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>135.370731907559</v>
@@ -23773,13 +23773,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,10 +23831,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
@@ -23858,7 +23858,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23913,7 +23913,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>94.30397654773019</v>
@@ -23931,10 +23931,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23992,7 +23992,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
@@ -24016,7 +24016,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24068,10 +24068,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -24095,7 +24095,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24150,7 +24150,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>94.30397654773019</v>
@@ -24171,7 +24171,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24229,7 +24229,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
@@ -24253,7 +24253,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24387,10 +24387,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>90.4687457914608</v>
@@ -24405,10 +24405,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24466,10 +24466,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>130.6648563030561</v>
@@ -24487,10 +24487,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24542,10 +24542,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -24566,10 +24566,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24624,7 +24624,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>94.30397654773019</v>
@@ -24645,7 +24645,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24703,10 +24703,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
@@ -24715,19 +24715,19 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24779,10 +24779,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>80.29914934735042</v>
@@ -24806,7 +24806,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24861,13 +24861,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>92.09541281912071</v>
@@ -24879,10 +24879,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -24940,10 +24940,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>130.6648563030561</v>
@@ -24964,7 +24964,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25016,10 +25016,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -25043,7 +25043,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25119,7 +25119,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25177,10 +25177,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>130.6648563030561</v>
@@ -25268,7 +25268,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>57.81213424001893</v>
@@ -25335,13 +25335,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>92.09541281912071</v>
@@ -25350,13 +25350,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25438,7 +25438,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25490,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25517,7 +25517,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25572,13 +25572,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>92.09541281912071</v>
@@ -25587,13 +25587,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25675,7 +25675,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25730,7 +25730,7 @@
         <v>87.25340171355576</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25809,13 +25809,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>92.09541281912071</v>
@@ -25824,13 +25824,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25891,7 +25891,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>130.6648563030561</v>
@@ -25964,7 +25964,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>93.17061249236157</v>
@@ -25991,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26046,10 +26046,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>90.4687457914608</v>
@@ -26064,10 +26064,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.158611646853386e-12</v>
+        <v>85038.34600881107</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.158611646853386e-12</v>
+        <v>237963.7759737229</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.158611646853386e-12</v>
+        <v>188285.9407397011</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>134119.4365875991</v>
+        <v>269846.3579873433</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>134119.4365875991</v>
+        <v>228497.3447471093</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>134119.4365875991</v>
+        <v>221129.1961700491</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>134119.4365875991</v>
+        <v>176414.363300995</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>134119.4365875991</v>
+        <v>173559.6398354785</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>134119.4365875991</v>
+        <v>223900.2900665901</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>134119.4365875991</v>
+        <v>261266.744873247</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>134119.4365875991</v>
+        <v>194107.9901318661</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134119.4365875991</v>
+        <v>194264.1273992071</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134119.4365875991</v>
+        <v>175119.7405261918</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>134119.4365875991</v>
+        <v>162586.3944947283</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>134119.4365875991</v>
+        <v>169995.8272375219</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20361.29411478576</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>56977.2421345534</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>45082.54919119604</v>
       </c>
       <c r="E2" t="n">
-        <v>43019.44192432427</v>
+        <v>75517.43718905178</v>
       </c>
       <c r="F2" t="n">
-        <v>43019.44192432427</v>
+        <v>65616.96923012252</v>
       </c>
       <c r="G2" t="n">
-        <v>43019.44192432427</v>
+        <v>63852.76464124895</v>
       </c>
       <c r="H2" t="n">
-        <v>43019.44192432427</v>
+        <v>53146.39620781346</v>
       </c>
       <c r="I2" t="n">
-        <v>43019.44192432427</v>
+        <v>52462.87087099961</v>
       </c>
       <c r="J2" t="n">
-        <v>43019.44192432427</v>
+        <v>64516.26599675878</v>
       </c>
       <c r="K2" t="n">
-        <v>43019.44192432427</v>
+        <v>73463.16362652168</v>
       </c>
       <c r="L2" t="n">
-        <v>43019.44192432427</v>
+        <v>57382.8984067544</v>
       </c>
       <c r="M2" t="n">
-        <v>43019.44192432427</v>
+        <v>57420.28338625855</v>
       </c>
       <c r="N2" t="n">
-        <v>43019.44192432427</v>
+        <v>52836.41610680419</v>
       </c>
       <c r="O2" t="n">
-        <v>43019.44192432427</v>
+        <v>49835.47409927069</v>
       </c>
       <c r="P2" t="n">
-        <v>43019.44192432427</v>
+        <v>51609.56362923534</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>21559.01729800845</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>60328.84461305654</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>47734.46384950168</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>34409.64204500559</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>23926.79361790402</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22058.81228850849</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10722.65747663562</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9998.92476706802</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22761.34313551889</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>32234.52886115019</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>15208.36568727897</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15247.94978322456</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10394.44325203758</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7216.975244060922</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9095.422981670554</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="E6" t="n">
-        <v>-93692.17018068412</v>
+        <v>-111687.659019978</v>
       </c>
       <c r="F6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002207</v>
       </c>
       <c r="G6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002205</v>
       </c>
       <c r="H6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002204</v>
       </c>
       <c r="I6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002204</v>
       </c>
       <c r="J6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002205</v>
       </c>
       <c r="K6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002206</v>
       </c>
       <c r="L6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002204</v>
       </c>
       <c r="M6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002203</v>
       </c>
       <c r="N6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002204</v>
       </c>
       <c r="O6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002204</v>
       </c>
       <c r="P6" t="n">
-        <v>39407.82981931594</v>
+        <v>21412.34098002204</v>
       </c>
     </row>
   </sheetData>
